--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6361D63-304A-4845-B09F-4F5A1FB72BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49401297-1140-4B32-8549-CCEFA5D0FB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CambioTasa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>6 mar. 2023, 15:35:09</t>
+  </si>
+  <si>
+    <t>usuario Ap</t>
+  </si>
+  <si>
+    <t>SCISNEROSC1</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,11 +416,12 @@
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,19 +434,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -450,13 +460,16 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49401297-1140-4B32-8549-CCEFA5D0FB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D3F50-3C57-46E9-8DC0-96B5213C7716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>usuario</t>
   </si>
@@ -48,9 +48,6 @@
     <t>1008999577</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -73,12 +70,19 @@
   </si>
   <si>
     <t>SCISNEROSC1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 10:08:54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,17 +412,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -435,21 +439,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -458,19 +462,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D3F50-3C57-46E9-8DC0-96B5213C7716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22248E61-418F-42B7-802F-B77ECB27DEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -39,15 +39,9 @@
     <t>fijo</t>
   </si>
   <si>
-    <t>SCISNEROSCSUP1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
-    <t>1008999577</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>6 mar. 2023, 15:35:09</t>
   </si>
   <si>
@@ -76,13 +67,18 @@
   </si>
   <si>
     <t>24 may. 2023, 10:08:54</t>
+  </si>
+  <si>
+    <t>1008535937</t>
+  </si>
+  <si>
+    <t>SCISNEROSS1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,17 +408,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -439,42 +435,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -73,12 +73,22 @@
   </si>
   <si>
     <t>SCISNEROSS1</t>
+  </si>
+  <si>
+    <t>AAACT23145TGWCLCX</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>25 may. 2023, 11:23:43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,12 +423,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -464,13 +474,13 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22248E61-418F-42B7-802F-B77ECB27DEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA4287-8A50-4274-809A-3885060C14B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -36,9 +36,6 @@
     <t>cuenta</t>
   </si>
   <si>
-    <t>fijo</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:35:09</t>
-  </si>
-  <si>
     <t>usuario Ap</t>
   </si>
   <si>
@@ -66,9 +57,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>24 may. 2023, 10:08:54</t>
-  </si>
-  <si>
     <t>1008535937</t>
   </si>
   <si>
@@ -82,13 +70,15 @@
   </si>
   <si>
     <t>25 may. 2023, 11:23:43</t>
+  </si>
+  <si>
+    <t>tasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,17 +408,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -442,45 +432,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEA4287-8A50-4274-809A-3885060C14B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE08C41-4AA6-47C5-9C85-7D8D8BEDEDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -51,18 +51,9 @@
     <t>usuario Ap</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>1008535937</t>
   </si>
   <si>
-    <t>SCISNEROSS1</t>
-  </si>
-  <si>
     <t>AAACT23145TGWCLCX</t>
   </si>
   <si>
@@ -73,12 +64,28 @@
   </si>
   <si>
     <t>tasa</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>btorres</t>
+  </si>
+  <si>
+    <t>ACHACALTANAS1</t>
+  </si>
+  <si>
+    <t>AAACT232011SD7TZT</t>
+  </si>
+  <si>
+    <t>20 jul. 2023, 09:42:54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,17 +415,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -432,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -449,28 +456,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE08C41-4AA6-47C5-9C85-7D8D8BEDEDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196AC29-3013-4C2B-A0C9-7200C4C49F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -54,13 +54,7 @@
     <t>1008535937</t>
   </si>
   <si>
-    <t>AAACT23145TGWCLCX</t>
-  </si>
-  <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>25 may. 2023, 11:23:43</t>
   </si>
   <si>
     <t>tasa</t>
@@ -85,7 +79,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,12 +413,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -439,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -456,7 +449,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -465,19 +458,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196AC29-3013-4C2B-A0C9-7200C4C49F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63285E8E-A3A0-4E5D-B593-E0E0C34C03BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>usuario Ap</t>
   </si>
   <si>
-    <t>1008535937</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>20 jul. 2023, 09:42:54</t>
+  </si>
+  <si>
+    <t>1008007997</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -449,28 +449,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioTasa.xlsx
+++ b/src/Excel/entregable3/CambioTasa.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63285E8E-A3A0-4E5D-B593-E0E0C34C03BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF401E9-2A8F-4812-AF3C-D458669F9EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -73,12 +73,19 @@
   </si>
   <si>
     <t>1008007997</t>
+  </si>
+  <si>
+    <t>AAACT23219YZFFG1T</t>
+  </si>
+  <si>
+    <t>7 ago. 2023, 15:21:19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,12 +420,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -467,10 +474,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
